--- a/pred_ohlcv/54/2019-10-22 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-22 BAT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>254.65</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,6 +460,9 @@
         <v>254.75</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>254.8833333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>255.0833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,6 +547,9 @@
         <v>255.2833333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1234,6 +1332,9 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1260,6 +1361,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1286,6 +1390,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1338,6 +1448,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1364,6 +1477,9 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1390,6 +1506,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1442,6 +1564,9 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1494,6 +1622,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1546,6 +1680,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1572,6 +1709,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1598,6 +1738,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1624,6 +1767,9 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1780,6 +1941,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1806,6 +1970,9 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1832,6 +1999,9 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1858,6 +2028,9 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1884,6 +2057,9 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1910,6 +2086,9 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1936,6 +2115,9 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1962,6 +2144,9 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1988,6 +2173,9 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2014,6 +2202,9 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2040,6 +2231,9 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2066,6 +2260,9 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2092,6 +2289,9 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2118,6 +2318,9 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2144,6 +2347,9 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2170,6 +2376,9 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2196,6 +2405,9 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2222,6 +2434,9 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2248,6 +2463,9 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2274,6 +2492,9 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2300,6 +2521,9 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2326,6 +2550,9 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2352,6 +2579,9 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2378,6 +2608,9 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2404,550 +2637,7 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>278</v>
-      </c>
-      <c r="C79" t="n">
-        <v>278</v>
-      </c>
-      <c r="D79" t="n">
-        <v>278</v>
-      </c>
-      <c r="E79" t="n">
-        <v>278</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9119.965207913669</v>
-      </c>
-      <c r="G79" t="n">
-        <v>272.7333333333333</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>278</v>
-      </c>
-      <c r="C80" t="n">
-        <v>277</v>
-      </c>
-      <c r="D80" t="n">
-        <v>278</v>
-      </c>
-      <c r="E80" t="n">
-        <v>277</v>
-      </c>
-      <c r="F80" t="n">
-        <v>5331.6488</v>
-      </c>
-      <c r="G80" t="n">
-        <v>272.9166666666667</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>279</v>
-      </c>
-      <c r="C81" t="n">
-        <v>279</v>
-      </c>
-      <c r="D81" t="n">
-        <v>279</v>
-      </c>
-      <c r="E81" t="n">
-        <v>279</v>
-      </c>
-      <c r="F81" t="n">
-        <v>242.7718</v>
-      </c>
-      <c r="G81" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>279</v>
-      </c>
-      <c r="C82" t="n">
-        <v>280</v>
-      </c>
-      <c r="D82" t="n">
-        <v>280</v>
-      </c>
-      <c r="E82" t="n">
-        <v>279</v>
-      </c>
-      <c r="F82" t="n">
-        <v>10092.6086</v>
-      </c>
-      <c r="G82" t="n">
-        <v>273.3</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>280</v>
-      </c>
-      <c r="C83" t="n">
-        <v>281</v>
-      </c>
-      <c r="D83" t="n">
-        <v>281</v>
-      </c>
-      <c r="E83" t="n">
-        <v>280</v>
-      </c>
-      <c r="F83" t="n">
-        <v>11779.7275</v>
-      </c>
-      <c r="G83" t="n">
-        <v>273.4833333333333</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>280</v>
-      </c>
-      <c r="C84" t="n">
-        <v>280</v>
-      </c>
-      <c r="D84" t="n">
-        <v>280</v>
-      </c>
-      <c r="E84" t="n">
-        <v>280</v>
-      </c>
-      <c r="F84" t="n">
-        <v>103.2892</v>
-      </c>
-      <c r="G84" t="n">
-        <v>273.6666666666667</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>278</v>
-      </c>
-      <c r="C85" t="n">
-        <v>280</v>
-      </c>
-      <c r="D85" t="n">
-        <v>280</v>
-      </c>
-      <c r="E85" t="n">
-        <v>278</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1024.9427</v>
-      </c>
-      <c r="G85" t="n">
-        <v>273.8166666666667</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>281</v>
-      </c>
-      <c r="C86" t="n">
-        <v>281</v>
-      </c>
-      <c r="D86" t="n">
-        <v>281</v>
-      </c>
-      <c r="E86" t="n">
-        <v>281</v>
-      </c>
-      <c r="F86" t="n">
-        <v>22315.5385</v>
-      </c>
-      <c r="G86" t="n">
-        <v>273.9666666666666</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>281</v>
-      </c>
-      <c r="C87" t="n">
-        <v>281</v>
-      </c>
-      <c r="D87" t="n">
-        <v>281</v>
-      </c>
-      <c r="E87" t="n">
-        <v>281</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2867.3834</v>
-      </c>
-      <c r="G87" t="n">
-        <v>274.15</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>281</v>
-      </c>
-      <c r="C88" t="n">
-        <v>281</v>
-      </c>
-      <c r="D88" t="n">
-        <v>281</v>
-      </c>
-      <c r="E88" t="n">
-        <v>281</v>
-      </c>
-      <c r="F88" t="n">
-        <v>15664.4054</v>
-      </c>
-      <c r="G88" t="n">
-        <v>274.3666666666667</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>281</v>
-      </c>
-      <c r="C89" t="n">
-        <v>281</v>
-      </c>
-      <c r="D89" t="n">
-        <v>281</v>
-      </c>
-      <c r="E89" t="n">
-        <v>281</v>
-      </c>
-      <c r="F89" t="n">
-        <v>192</v>
-      </c>
-      <c r="G89" t="n">
-        <v>274.55</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>281</v>
-      </c>
-      <c r="C90" t="n">
-        <v>281</v>
-      </c>
-      <c r="D90" t="n">
-        <v>281</v>
-      </c>
-      <c r="E90" t="n">
-        <v>281</v>
-      </c>
-      <c r="F90" t="n">
-        <v>7300</v>
-      </c>
-      <c r="G90" t="n">
-        <v>274.75</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>280</v>
-      </c>
-      <c r="C91" t="n">
-        <v>280</v>
-      </c>
-      <c r="D91" t="n">
-        <v>280</v>
-      </c>
-      <c r="E91" t="n">
-        <v>280</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2867.3834</v>
-      </c>
-      <c r="G91" t="n">
-        <v>274.9166666666667</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>281</v>
-      </c>
-      <c r="C92" t="n">
-        <v>281</v>
-      </c>
-      <c r="D92" t="n">
-        <v>281</v>
-      </c>
-      <c r="E92" t="n">
-        <v>281</v>
-      </c>
-      <c r="F92" t="n">
-        <v>500</v>
-      </c>
-      <c r="G92" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>281</v>
-      </c>
-      <c r="C93" t="n">
-        <v>282</v>
-      </c>
-      <c r="D93" t="n">
-        <v>282</v>
-      </c>
-      <c r="E93" t="n">
-        <v>281</v>
-      </c>
-      <c r="F93" t="n">
-        <v>45.8049</v>
-      </c>
-      <c r="G93" t="n">
-        <v>275.2833333333334</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>282</v>
-      </c>
-      <c r="C94" t="n">
-        <v>282</v>
-      </c>
-      <c r="D94" t="n">
-        <v>282</v>
-      </c>
-      <c r="E94" t="n">
-        <v>282</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5247.6063</v>
-      </c>
-      <c r="G94" t="n">
-        <v>275.45</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>279</v>
-      </c>
-      <c r="C95" t="n">
-        <v>278</v>
-      </c>
-      <c r="D95" t="n">
-        <v>279</v>
-      </c>
-      <c r="E95" t="n">
-        <v>278</v>
-      </c>
-      <c r="F95" t="n">
-        <v>4310</v>
-      </c>
-      <c r="G95" t="n">
-        <v>275.55</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>277</v>
-      </c>
-      <c r="C96" t="n">
-        <v>277</v>
-      </c>
-      <c r="D96" t="n">
-        <v>277</v>
-      </c>
-      <c r="E96" t="n">
-        <v>277</v>
-      </c>
-      <c r="F96" t="n">
-        <v>978.452</v>
-      </c>
-      <c r="G96" t="n">
-        <v>275.6333333333333</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>277</v>
-      </c>
-      <c r="C97" t="n">
-        <v>277</v>
-      </c>
-      <c r="D97" t="n">
-        <v>277</v>
-      </c>
-      <c r="E97" t="n">
-        <v>277</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5.7165</v>
-      </c>
-      <c r="G97" t="n">
-        <v>275.7</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>277</v>
-      </c>
-      <c r="C98" t="n">
-        <v>277</v>
-      </c>
-      <c r="D98" t="n">
-        <v>277</v>
-      </c>
-      <c r="E98" t="n">
-        <v>277</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4527.3425</v>
-      </c>
-      <c r="G98" t="n">
-        <v>275.7666666666667</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>277</v>
-      </c>
-      <c r="C99" t="n">
-        <v>276</v>
-      </c>
-      <c r="D99" t="n">
-        <v>279</v>
-      </c>
-      <c r="E99" t="n">
-        <v>276</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8877.817800000001</v>
-      </c>
-      <c r="G99" t="n">
-        <v>275.8166666666667</v>
-      </c>
-      <c r="H99" t="n">
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
